--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
   <si>
     <t>Classification</t>
   </si>
@@ -900,7 +900,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>-52</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
@@ -1024,7 +1024,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>4</v>
+        <v>-440</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
@@ -1413,8 +1413,8 @@
       <c r="G22" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
+      <c r="H22" s="2">
+        <v>NaN</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>18</v>
@@ -2101,7 +2101,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="47:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>NaN</v>
+      </c>
       <c r="AU47">
         <v>4209643</v>
       </c>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -2101,7 +2101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:47" x14ac:dyDescent="0.25">
       <c r="H47">
         <v>NaN</v>
       </c>
